--- a/netflix.xlsx
+++ b/netflix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alinsperedu-my.sharepoint.com/personal/arthurmpg_al_insper_edu_br/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZEBINHO\Downloads\INSPER\2° Semestre\CDados\P1\Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83F6FA53-1BE8-4468-9770-51077272FEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909A92D8-A335-478F-B325-5D0E84964F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -1693,7 +1693,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1703,6 +1703,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1745,7 +1753,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1757,6 +1765,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1775,7 +1784,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2095,19 +2104,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B301"/>
+  <dimension ref="A1:B302"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A263" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="B302" sqref="B302"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="255.28515625" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2115,7 +2124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2123,7 +2132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2131,15 +2140,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2147,15 +2156,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2163,15 +2172,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2179,7 +2188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2187,7 +2196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2195,71 +2204,71 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -2267,7 +2276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -2275,31 +2284,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -2307,7 +2316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -2315,7 +2324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -2323,7 +2332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -2331,7 +2340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -2339,15 +2348,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -2355,23 +2364,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -2379,7 +2388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -2387,7 +2396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -2395,7 +2404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -2403,15 +2412,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -2419,7 +2428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -2427,15 +2436,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
       <c r="B41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -2443,7 +2452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -2451,15 +2460,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
       <c r="B44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -2467,7 +2476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -2475,31 +2484,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
       <c r="B47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
       <c r="B48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
       <c r="B49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -2507,39 +2516,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
       <c r="B51" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
       <c r="B52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
       <c r="B53" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
       <c r="B54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -2547,15 +2556,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
       <c r="B56" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -2563,7 +2572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -2571,39 +2580,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
       <c r="B59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
       <c r="B60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
       <c r="B61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
       <c r="B62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -2611,7 +2620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -2619,15 +2628,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
       <c r="B65" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -2635,7 +2644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -2643,31 +2652,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>68</v>
       </c>
       <c r="B68" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>69</v>
       </c>
       <c r="B69" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
       </c>
       <c r="B70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -2675,7 +2684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -2683,15 +2692,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>73</v>
       </c>
       <c r="B73" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -2699,7 +2708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -2707,15 +2716,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>76</v>
       </c>
       <c r="B76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -2723,7 +2732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -2731,7 +2740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -2739,47 +2748,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>80</v>
       </c>
       <c r="B80" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>81</v>
       </c>
       <c r="B81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>82</v>
       </c>
       <c r="B82" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>83</v>
       </c>
       <c r="B83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>84</v>
       </c>
       <c r="B84" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -2787,15 +2796,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>86</v>
       </c>
       <c r="B86" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -2803,7 +2812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -2811,23 +2820,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>89</v>
       </c>
       <c r="B89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>90</v>
       </c>
       <c r="B90" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -2835,15 +2844,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>92</v>
       </c>
       <c r="B92" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>93</v>
       </c>
@@ -2851,7 +2860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>94</v>
       </c>
@@ -2859,7 +2868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>95</v>
       </c>
@@ -2867,15 +2876,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>96</v>
       </c>
       <c r="B96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -2883,7 +2892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>98</v>
       </c>
@@ -2891,7 +2900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>99</v>
       </c>
@@ -2899,7 +2908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>100</v>
       </c>
@@ -2907,7 +2916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>101</v>
       </c>
@@ -2915,7 +2924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>102</v>
       </c>
@@ -2923,7 +2932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>103</v>
       </c>
@@ -2931,15 +2940,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>104</v>
       </c>
       <c r="B104" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>105</v>
       </c>
@@ -2947,7 +2956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>106</v>
       </c>
@@ -2955,23 +2964,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>107</v>
       </c>
       <c r="B107" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>108</v>
       </c>
       <c r="B108" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>109</v>
       </c>
@@ -2979,23 +2988,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>110</v>
       </c>
       <c r="B110" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>111</v>
       </c>
       <c r="B111" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>112</v>
       </c>
@@ -3003,7 +3012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>113</v>
       </c>
@@ -3011,7 +3020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>114</v>
       </c>
@@ -3019,55 +3028,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>115</v>
       </c>
       <c r="B115" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>116</v>
       </c>
       <c r="B116" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>117</v>
       </c>
       <c r="B117" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>118</v>
       </c>
       <c r="B118" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>119</v>
       </c>
       <c r="B119" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>120</v>
       </c>
       <c r="B120" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>121</v>
       </c>
@@ -3075,23 +3084,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>122</v>
       </c>
       <c r="B122" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>123</v>
       </c>
       <c r="B123" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>124</v>
       </c>
@@ -3099,7 +3108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>125</v>
       </c>
@@ -3107,7 +3116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>126</v>
       </c>
@@ -3115,7 +3124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>127</v>
       </c>
@@ -3123,7 +3132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>128</v>
       </c>
@@ -3131,7 +3140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>129</v>
       </c>
@@ -3139,15 +3148,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>130</v>
       </c>
       <c r="B130" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>131</v>
       </c>
@@ -3155,7 +3164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>132</v>
       </c>
@@ -3163,15 +3172,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>133</v>
       </c>
       <c r="B133" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>134</v>
       </c>
@@ -3179,23 +3188,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>135</v>
       </c>
       <c r="B135" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>136</v>
       </c>
       <c r="B136" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>137</v>
       </c>
@@ -3203,7 +3212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>138</v>
       </c>
@@ -3211,7 +3220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>139</v>
       </c>
@@ -3219,23 +3228,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>140</v>
       </c>
       <c r="B140" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>141</v>
       </c>
       <c r="B141" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>142</v>
       </c>
@@ -3243,7 +3252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>143</v>
       </c>
@@ -3251,15 +3260,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>144</v>
       </c>
       <c r="B144" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>145</v>
       </c>
@@ -3267,7 +3276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>146</v>
       </c>
@@ -3275,7 +3284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>147</v>
       </c>
@@ -3283,7 +3292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>148</v>
       </c>
@@ -3291,7 +3300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>149</v>
       </c>
@@ -3299,23 +3308,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>150</v>
       </c>
       <c r="B150" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>151</v>
       </c>
       <c r="B151" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>152</v>
       </c>
@@ -3323,7 +3332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>153</v>
       </c>
@@ -3331,7 +3340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>154</v>
       </c>
@@ -3339,7 +3348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>155</v>
       </c>
@@ -3347,31 +3356,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>156</v>
       </c>
       <c r="B156" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>157</v>
       </c>
       <c r="B157" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>158</v>
       </c>
       <c r="B158" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>159</v>
       </c>
@@ -3379,7 +3388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>160</v>
       </c>
@@ -3387,7 +3396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>161</v>
       </c>
@@ -3395,15 +3404,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>162</v>
       </c>
       <c r="B162" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>163</v>
       </c>
@@ -3411,7 +3420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>164</v>
       </c>
@@ -3419,7 +3428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>165</v>
       </c>
@@ -3427,7 +3436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>166</v>
       </c>
@@ -3435,7 +3444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>167</v>
       </c>
@@ -3443,15 +3452,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>168</v>
       </c>
       <c r="B168" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>169</v>
       </c>
@@ -3459,7 +3468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>170</v>
       </c>
@@ -3467,7 +3476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>171</v>
       </c>
@@ -3475,7 +3484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>172</v>
       </c>
@@ -3483,15 +3492,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>173</v>
       </c>
       <c r="B173" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>174</v>
       </c>
@@ -3499,39 +3508,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>175</v>
       </c>
       <c r="B175" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>176</v>
       </c>
       <c r="B176" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>177</v>
       </c>
       <c r="B177" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>178</v>
       </c>
       <c r="B178" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>179</v>
       </c>
@@ -3539,7 +3548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>180</v>
       </c>
@@ -3547,7 +3556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>181</v>
       </c>
@@ -3555,31 +3564,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>182</v>
       </c>
       <c r="B182" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>183</v>
       </c>
       <c r="B183" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>184</v>
       </c>
       <c r="B184" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>185</v>
       </c>
@@ -3587,15 +3596,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>186</v>
       </c>
       <c r="B186" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>187</v>
       </c>
@@ -3603,7 +3612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>188</v>
       </c>
@@ -3611,7 +3620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>189</v>
       </c>
@@ -3619,39 +3628,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>190</v>
       </c>
       <c r="B190" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>191</v>
       </c>
       <c r="B191" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>192</v>
       </c>
       <c r="B192" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>193</v>
       </c>
       <c r="B193" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>194</v>
       </c>
@@ -3659,23 +3668,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>195</v>
       </c>
       <c r="B195" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>196</v>
       </c>
       <c r="B196" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>197</v>
       </c>
@@ -3683,7 +3692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>198</v>
       </c>
@@ -3691,7 +3700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>199</v>
       </c>
@@ -3699,7 +3708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>200</v>
       </c>
@@ -3707,7 +3716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>201</v>
       </c>
@@ -3715,15 +3724,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>202</v>
       </c>
       <c r="B202" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>203</v>
       </c>
@@ -3731,15 +3740,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>204</v>
       </c>
       <c r="B204" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>205</v>
       </c>
@@ -3747,7 +3756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>206</v>
       </c>
@@ -3755,15 +3764,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>207</v>
       </c>
       <c r="B207" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>208</v>
       </c>
@@ -3771,47 +3780,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>209</v>
       </c>
       <c r="B209" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>210</v>
       </c>
       <c r="B210" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>211</v>
       </c>
       <c r="B211" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>212</v>
       </c>
       <c r="B212" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>213</v>
       </c>
       <c r="B213" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>214</v>
       </c>
@@ -3819,15 +3828,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>215</v>
       </c>
       <c r="B215" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>216</v>
       </c>
@@ -3835,15 +3844,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>217</v>
       </c>
       <c r="B217" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>218</v>
       </c>
@@ -3851,7 +3860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>219</v>
       </c>
@@ -3859,23 +3868,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>220</v>
       </c>
       <c r="B220" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>221</v>
       </c>
       <c r="B221" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>222</v>
       </c>
@@ -3883,23 +3892,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>223</v>
       </c>
       <c r="B223" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>224</v>
       </c>
       <c r="B224" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>225</v>
       </c>
@@ -3907,31 +3916,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>226</v>
       </c>
       <c r="B226" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>227</v>
       </c>
       <c r="B227" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>228</v>
       </c>
       <c r="B228" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>229</v>
       </c>
@@ -3939,39 +3948,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>230</v>
       </c>
       <c r="B230" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>231</v>
       </c>
       <c r="B231" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>232</v>
       </c>
       <c r="B232" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>233</v>
       </c>
       <c r="B233" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>234</v>
       </c>
@@ -3979,7 +3988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>235</v>
       </c>
@@ -3987,15 +3996,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>236</v>
       </c>
       <c r="B236" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>237</v>
       </c>
@@ -4003,7 +4012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>238</v>
       </c>
@@ -4011,31 +4020,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>239</v>
       </c>
       <c r="B239" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>240</v>
       </c>
       <c r="B240" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>241</v>
       </c>
       <c r="B241" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>242</v>
       </c>
@@ -4043,31 +4052,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>243</v>
       </c>
       <c r="B243" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>244</v>
       </c>
       <c r="B244" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>245</v>
       </c>
       <c r="B245" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>246</v>
       </c>
@@ -4075,15 +4084,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>247</v>
       </c>
       <c r="B247" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>248</v>
       </c>
@@ -4091,39 +4100,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>249</v>
       </c>
       <c r="B249" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>250</v>
       </c>
       <c r="B250" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>251</v>
       </c>
       <c r="B251" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>252</v>
       </c>
       <c r="B252" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>253</v>
       </c>
@@ -4131,23 +4140,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>254</v>
       </c>
       <c r="B254" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>255</v>
       </c>
       <c r="B255" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>256</v>
       </c>
@@ -4155,15 +4164,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>257</v>
       </c>
       <c r="B257" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>258</v>
       </c>
@@ -4171,7 +4180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>259</v>
       </c>
@@ -4179,23 +4188,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>260</v>
       </c>
       <c r="B260" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>261</v>
       </c>
       <c r="B261" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>262</v>
       </c>
@@ -4203,31 +4212,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>263</v>
       </c>
       <c r="B263" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>264</v>
       </c>
       <c r="B264" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>265</v>
       </c>
       <c r="B265" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>266</v>
       </c>
@@ -4235,47 +4244,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>267</v>
       </c>
       <c r="B267" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>268</v>
       </c>
       <c r="B268" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>269</v>
       </c>
       <c r="B269" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>270</v>
       </c>
       <c r="B270" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>271</v>
       </c>
       <c r="B271" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>272</v>
       </c>
@@ -4283,15 +4292,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>273</v>
       </c>
       <c r="B273" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>274</v>
       </c>
@@ -4299,7 +4308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>275</v>
       </c>
@@ -4307,23 +4316,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>276</v>
       </c>
       <c r="B276" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>277</v>
       </c>
       <c r="B277" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>278</v>
       </c>
@@ -4331,7 +4340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>279</v>
       </c>
@@ -4339,23 +4348,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>280</v>
       </c>
       <c r="B280" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>281</v>
       </c>
       <c r="B281" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>282</v>
       </c>
@@ -4363,31 +4372,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>283</v>
       </c>
       <c r="B283" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>284</v>
       </c>
       <c r="B284" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>285</v>
       </c>
       <c r="B285" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>286</v>
       </c>
@@ -4395,15 +4404,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>287</v>
       </c>
       <c r="B287" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>288</v>
       </c>
@@ -4411,23 +4420,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>289</v>
       </c>
       <c r="B289" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>290</v>
       </c>
       <c r="B290" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>291</v>
       </c>
@@ -4435,31 +4444,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>292</v>
       </c>
       <c r="B292" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>293</v>
       </c>
       <c r="B293" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>294</v>
       </c>
       <c r="B294" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>295</v>
       </c>
@@ -4467,7 +4476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>296</v>
       </c>
@@ -4475,45 +4484,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>297</v>
       </c>
       <c r="B297" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>298</v>
       </c>
       <c r="B298" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>299</v>
       </c>
       <c r="B299" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>300</v>
       </c>
       <c r="B300" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>301</v>
       </c>
       <c r="B301" s="3">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B302" s="5"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B301">
@@ -4528,17 +4540,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B201"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A199" sqref="A199"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="253.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>302</v>
       </c>
@@ -4546,15 +4558,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>303</v>
       </c>
       <c r="B2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>304</v>
       </c>
@@ -4562,7 +4574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>305</v>
       </c>
@@ -4570,23 +4582,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>306</v>
       </c>
       <c r="B5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>307</v>
       </c>
       <c r="B6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>308</v>
       </c>
@@ -4594,15 +4606,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>309</v>
       </c>
       <c r="B8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>310</v>
       </c>
@@ -4610,7 +4622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>311</v>
       </c>
@@ -4618,15 +4630,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>312</v>
       </c>
       <c r="B11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>313</v>
       </c>
@@ -4634,31 +4646,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>314</v>
       </c>
       <c r="B13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>315</v>
       </c>
       <c r="B14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>316</v>
       </c>
       <c r="B15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>317</v>
       </c>
@@ -4666,23 +4678,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>318</v>
       </c>
       <c r="B17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>319</v>
       </c>
       <c r="B18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>320</v>
       </c>
@@ -4690,15 +4702,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>321</v>
       </c>
       <c r="B20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>322</v>
       </c>
@@ -4706,39 +4718,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>323</v>
       </c>
       <c r="B22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>324</v>
       </c>
       <c r="B23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>325</v>
       </c>
       <c r="B24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>326</v>
       </c>
       <c r="B25" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>327</v>
       </c>
@@ -4746,7 +4758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>328</v>
       </c>
@@ -4754,47 +4766,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>329</v>
       </c>
       <c r="B28" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>330</v>
       </c>
       <c r="B29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>331</v>
       </c>
       <c r="B30" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>332</v>
       </c>
       <c r="B31" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>333</v>
       </c>
       <c r="B32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>334</v>
       </c>
@@ -4802,7 +4814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>335</v>
       </c>
@@ -4810,15 +4822,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>336</v>
       </c>
       <c r="B35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>337</v>
       </c>
@@ -4826,15 +4838,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>338</v>
       </c>
       <c r="B37" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>339</v>
       </c>
@@ -4842,23 +4854,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>340</v>
       </c>
       <c r="B39" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>341</v>
       </c>
       <c r="B40" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>342</v>
       </c>
@@ -4866,15 +4878,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>343</v>
       </c>
       <c r="B42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>344</v>
       </c>
@@ -4882,15 +4894,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>345</v>
       </c>
       <c r="B44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>346</v>
       </c>
@@ -4898,15 +4910,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>347</v>
       </c>
       <c r="B46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>348</v>
       </c>
@@ -4914,7 +4926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>349</v>
       </c>
@@ -4922,23 +4934,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>350</v>
       </c>
       <c r="B49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>351</v>
       </c>
       <c r="B50" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>352</v>
       </c>
@@ -4946,15 +4958,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>353</v>
       </c>
       <c r="B52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>354</v>
       </c>
@@ -4962,39 +4974,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>355</v>
       </c>
       <c r="B54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>356</v>
       </c>
       <c r="B55" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>357</v>
       </c>
       <c r="B56" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>358</v>
       </c>
       <c r="B57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>359</v>
       </c>
@@ -5002,7 +5014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>360</v>
       </c>
@@ -5010,31 +5022,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>361</v>
       </c>
       <c r="B60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>362</v>
       </c>
       <c r="B61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>363</v>
       </c>
       <c r="B62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>364</v>
       </c>
@@ -5042,7 +5054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>365</v>
       </c>
@@ -5050,15 +5062,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>366</v>
       </c>
       <c r="B65" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>367</v>
       </c>
@@ -5066,15 +5078,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>368</v>
       </c>
       <c r="B67" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>369</v>
       </c>
@@ -5082,7 +5094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>370</v>
       </c>
@@ -5090,55 +5102,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>371</v>
       </c>
       <c r="B70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>372</v>
       </c>
       <c r="B71" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>373</v>
       </c>
       <c r="B72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>374</v>
       </c>
       <c r="B73" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>375</v>
       </c>
       <c r="B74" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>376</v>
       </c>
       <c r="B75" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>377</v>
       </c>
@@ -5146,7 +5158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>378</v>
       </c>
@@ -5154,7 +5166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>379</v>
       </c>
@@ -5162,7 +5174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>380</v>
       </c>
@@ -5170,31 +5182,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>381</v>
       </c>
       <c r="B80" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>382</v>
       </c>
       <c r="B81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>383</v>
       </c>
       <c r="B82" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>384</v>
       </c>
@@ -5202,7 +5214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>385</v>
       </c>
@@ -5210,71 +5222,71 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>386</v>
       </c>
       <c r="B85" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>387</v>
       </c>
       <c r="B86" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>388</v>
       </c>
       <c r="B87" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>389</v>
       </c>
       <c r="B88" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>390</v>
       </c>
       <c r="B89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>391</v>
       </c>
       <c r="B90" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>392</v>
       </c>
       <c r="B91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>393</v>
       </c>
       <c r="B92" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>394</v>
       </c>
@@ -5282,7 +5294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>395</v>
       </c>
@@ -5290,7 +5302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>396</v>
       </c>
@@ -5298,23 +5310,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>397</v>
       </c>
       <c r="B96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>398</v>
       </c>
       <c r="B97" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>399</v>
       </c>
@@ -5322,15 +5334,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>400</v>
       </c>
       <c r="B99" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>401</v>
       </c>
@@ -5338,7 +5350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>402</v>
       </c>
@@ -5346,7 +5358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>403</v>
       </c>
@@ -5354,23 +5366,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>404</v>
       </c>
       <c r="B103" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>405</v>
       </c>
       <c r="B104" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>406</v>
       </c>
@@ -5378,7 +5390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>407</v>
       </c>
@@ -5386,7 +5398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>408</v>
       </c>
@@ -5394,15 +5406,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>409</v>
       </c>
       <c r="B108" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>410</v>
       </c>
@@ -5410,7 +5422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>411</v>
       </c>
@@ -5418,39 +5430,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>412</v>
       </c>
       <c r="B111" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>413</v>
       </c>
       <c r="B112" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>414</v>
       </c>
       <c r="B113" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>415</v>
       </c>
       <c r="B114" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>416</v>
       </c>
@@ -5458,7 +5470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>417</v>
       </c>
@@ -5466,7 +5478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>418</v>
       </c>
@@ -5474,15 +5486,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>419</v>
       </c>
       <c r="B118" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>420</v>
       </c>
@@ -5490,39 +5502,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>421</v>
       </c>
       <c r="B120" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>422</v>
       </c>
       <c r="B121" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>423</v>
       </c>
       <c r="B122" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>424</v>
       </c>
       <c r="B123" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>425</v>
       </c>
@@ -5530,23 +5542,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>426</v>
       </c>
       <c r="B125" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>427</v>
       </c>
       <c r="B126" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>428</v>
       </c>
@@ -5554,7 +5566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>429</v>
       </c>
@@ -5562,23 +5574,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>430</v>
       </c>
       <c r="B129" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>431</v>
       </c>
       <c r="B130" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>432</v>
       </c>
@@ -5586,7 +5598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>433</v>
       </c>
@@ -5594,7 +5606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>434</v>
       </c>
@@ -5602,31 +5614,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>435</v>
       </c>
       <c r="B134" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>436</v>
       </c>
       <c r="B135" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>437</v>
       </c>
       <c r="B136" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>438</v>
       </c>
@@ -5634,15 +5646,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>439</v>
       </c>
       <c r="B138" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>440</v>
       </c>
@@ -5650,23 +5662,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>441</v>
       </c>
       <c r="B140" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>442</v>
       </c>
       <c r="B141" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>443</v>
       </c>
@@ -5674,7 +5686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>444</v>
       </c>
@@ -5682,7 +5694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>445</v>
       </c>
@@ -5690,15 +5702,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>446</v>
       </c>
       <c r="B145" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>447</v>
       </c>
@@ -5706,7 +5718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>448</v>
       </c>
@@ -5714,7 +5726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>449</v>
       </c>
@@ -5722,23 +5734,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>450</v>
       </c>
       <c r="B149" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>451</v>
       </c>
       <c r="B150" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>452</v>
       </c>
@@ -5746,7 +5758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>453</v>
       </c>
@@ -5754,31 +5766,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>454</v>
       </c>
       <c r="B153" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>455</v>
       </c>
       <c r="B154" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>456</v>
       </c>
       <c r="B155" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>457</v>
       </c>
@@ -5786,39 +5798,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>458</v>
       </c>
       <c r="B157" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>459</v>
       </c>
       <c r="B158" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>460</v>
       </c>
       <c r="B159" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>461</v>
       </c>
       <c r="B160" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>462</v>
       </c>
@@ -5826,15 +5838,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>463</v>
       </c>
       <c r="B162" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>464</v>
       </c>
@@ -5842,15 +5854,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>465</v>
       </c>
       <c r="B164" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>466</v>
       </c>
@@ -5858,7 +5870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>467</v>
       </c>
@@ -5866,47 +5878,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>468</v>
       </c>
       <c r="B167" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>469</v>
       </c>
       <c r="B168" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>470</v>
       </c>
       <c r="B169" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>471</v>
       </c>
       <c r="B170" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>472</v>
       </c>
       <c r="B171" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>473</v>
       </c>
@@ -5914,31 +5926,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>474</v>
       </c>
       <c r="B173" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>475</v>
       </c>
       <c r="B174" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>476</v>
       </c>
       <c r="B175" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>477</v>
       </c>
@@ -5946,7 +5958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>478</v>
       </c>
@@ -5954,7 +5966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>479</v>
       </c>
@@ -5962,39 +5974,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>480</v>
       </c>
       <c r="B179" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>481</v>
       </c>
       <c r="B180" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>482</v>
       </c>
       <c r="B181" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>483</v>
       </c>
       <c r="B182" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>484</v>
       </c>
@@ -6002,15 +6014,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>485</v>
       </c>
       <c r="B184" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>486</v>
       </c>
@@ -6018,7 +6030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>487</v>
       </c>
@@ -6026,15 +6038,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>488</v>
       </c>
       <c r="B187" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>489</v>
       </c>
@@ -6042,7 +6054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>490</v>
       </c>
@@ -6050,39 +6062,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>491</v>
       </c>
       <c r="B190" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>492</v>
       </c>
       <c r="B191" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>493</v>
       </c>
       <c r="B192" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>494</v>
       </c>
       <c r="B193" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>495</v>
       </c>
@@ -6090,15 +6102,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>496</v>
       </c>
       <c r="B195" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>497</v>
       </c>
@@ -6106,7 +6118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>498</v>
       </c>
@@ -6114,15 +6126,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>499</v>
       </c>
       <c r="B198" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>500</v>
       </c>
@@ -6130,20 +6142,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>501</v>
       </c>
       <c r="B200" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>502</v>
       </c>
       <c r="B201" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6151,25 +6163,11 @@
     <sortCondition ref="B2:B201"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081E9768C82F49644B58CE34C046ED41B" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3184e0d5c53e5ac6fe19f6ba074e4247">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5e7fd5c0-e32b-44ca-8221-753f046e90c0" xmlns:ns4="0b23d67d-b7a5-47e2-b2ce-f764a8382e9a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="de92420ff1c9cc58b3e69e2faf950c69" ns3:_="" ns4:_="">
     <xsd:import namespace="5e7fd5c0-e32b-44ca-8221-753f046e90c0"/>
@@ -6340,14 +6338,53 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78280A0B-FF9E-4717-844E-10897F85755C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8486786-1D15-468C-BC2F-8777F1B4CFDD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5e7fd5c0-e32b-44ca-8221-753f046e90c0"/>
+    <ds:schemaRef ds:uri="0b23d67d-b7a5-47e2-b2ce-f764a8382e9a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C43F3C3-BFE2-4090-8F78-3D052445EF60}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C43F3C3-BFE2-4090-8F78-3D052445EF60}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8486786-1D15-468C-BC2F-8777F1B4CFDD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78280A0B-FF9E-4717-844E-10897F85755C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>